--- a/data/requirements.xlsx
+++ b/data/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanb/BPAOT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AFED55-04B4-1344-9F38-34DFF31D193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAAD20-24CC-BD46-B48E-E00DBB2C5DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Requirement</t>
   </si>
@@ -31,22 +31,76 @@
     <t>Proposed Solution</t>
   </si>
   <si>
-    <t>Track leave request status</t>
-  </si>
-  <si>
-    <t>Employees are unsure of their request’s progress</t>
-  </si>
-  <si>
-    <t>Add a real-time status tracker</t>
-  </si>
-  <si>
-    <t>Digitize approval process</t>
-  </si>
-  <si>
-    <t>Managers approve via email, which is hard to track</t>
-  </si>
-  <si>
-    <t>Build a centralized approval dashboard</t>
+    <t>Track leave requests</t>
+  </si>
+  <si>
+    <t>Employees don’t know request status</t>
+  </si>
+  <si>
+    <t>Add real-time tracking in the HR portal</t>
+  </si>
+  <si>
+    <t>Centralize approvals</t>
+  </si>
+  <si>
+    <t>Managers respond via scattered emails</t>
+  </si>
+  <si>
+    <t>Create a centralized approval dashboard</t>
+  </si>
+  <si>
+    <t>Automate report generation</t>
+  </si>
+  <si>
+    <t>Manual monthly reporting is slow</t>
+  </si>
+  <si>
+    <t>Auto-generate PDF reports from database</t>
+  </si>
+  <si>
+    <t>Improve data search</t>
+  </si>
+  <si>
+    <t>Filtering records is time-consuming</t>
+  </si>
+  <si>
+    <t>Add a search and filter panel for users</t>
+  </si>
+  <si>
+    <t>Analyze process delays</t>
+  </si>
+  <si>
+    <t>No visibility into bottlenecks</t>
+  </si>
+  <si>
+    <t>Include timestamp logging and delay metrics</t>
+  </si>
+  <si>
+    <t>Summarize user feedback</t>
+  </si>
+  <si>
+    <t>Unstructured notes are hard to review</t>
+  </si>
+  <si>
+    <t>Store feedback with sentiment tagging</t>
+  </si>
+  <si>
+    <t>Visualize data trends</t>
+  </si>
+  <si>
+    <t>Stakeholders don’t understand raw data</t>
+  </si>
+  <si>
+    <t>Use bar charts and KPIs in reports</t>
+  </si>
+  <si>
+    <t>Reduce duplicate requests</t>
+  </si>
+  <si>
+    <t>Employees submit same requests twice</t>
+  </si>
+  <si>
+    <t>Add validation for existing entries</t>
   </si>
 </sst>
 </file>
@@ -65,6 +119,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -409,14 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -452,6 +510,72 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/requirements.xlsx
+++ b/data/requirements.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanb/BPAOT/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAAD20-24CC-BD46-B48E-E00DBB2C5DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>Pain Point</t>
-  </si>
-  <si>
-    <t>Proposed Solution</t>
-  </si>
-  <si>
-    <t>Track leave requests</t>
-  </si>
-  <si>
-    <t>Employees don’t know request status</t>
-  </si>
-  <si>
-    <t>Add real-time tracking in the HR portal</t>
-  </si>
-  <si>
-    <t>Centralize approvals</t>
-  </si>
-  <si>
-    <t>Managers respond via scattered emails</t>
-  </si>
-  <si>
-    <t>Create a centralized approval dashboard</t>
-  </si>
-  <si>
-    <t>Automate report generation</t>
-  </si>
-  <si>
-    <t>Manual monthly reporting is slow</t>
-  </si>
-  <si>
-    <t>Auto-generate PDF reports from database</t>
-  </si>
-  <si>
-    <t>Improve data search</t>
-  </si>
-  <si>
-    <t>Filtering records is time-consuming</t>
-  </si>
-  <si>
-    <t>Add a search and filter panel for users</t>
-  </si>
-  <si>
-    <t>Analyze process delays</t>
-  </si>
-  <si>
-    <t>No visibility into bottlenecks</t>
-  </si>
-  <si>
-    <t>Include timestamp logging and delay metrics</t>
-  </si>
-  <si>
-    <t>Summarize user feedback</t>
-  </si>
-  <si>
-    <t>Unstructured notes are hard to review</t>
-  </si>
-  <si>
-    <t>Store feedback with sentiment tagging</t>
-  </si>
-  <si>
-    <t>Visualize data trends</t>
-  </si>
-  <si>
-    <t>Stakeholders don’t understand raw data</t>
-  </si>
-  <si>
-    <t>Use bar charts and KPIs in reports</t>
-  </si>
-  <si>
-    <t>Reduce duplicate requests</t>
-  </si>
-  <si>
-    <t>Employees submit same requests twice</t>
-  </si>
-  <si>
-    <t>Add validation for existing entries</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,117 +420,527 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Requirement</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pain Point</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Proposed Solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Track leave requests</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Employees don’t know request status</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Add real-time tracking in the HR portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Centralize approvals</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Managers respond via scattered emails</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Create a centralized approval dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Automate report generation</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manual monthly reporting is slow</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Auto-generate PDF reports from database</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Improve data search</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Filtering records is time-consuming</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Add a search and filter panel for users</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Analyze process delays</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No visibility into bottlenecks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Include timestamp logging and delay metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Summarize user feedback</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unstructured notes are hard to review</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Store feedback with sentiment tagging</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Visualize data trends</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stakeholders don’t understand raw data</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Use bar charts and KPIs in reports</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Reduce duplicate requests</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Employees submit same requests twice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Add validation for existing entries</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Users are unable to reset their password easily.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Password reset process is confusing.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Simplify the reset flow and send clearer recovery instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The app crashes when switching between tabs quickly.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>App instability during navigation.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Optimize state management and add error handling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Our inventory system doesn't sync with the website in real-time.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Delay in inventory updates.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Implement real-time API sync between backend and frontend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Employees forget to log their daily hours.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Time tracking compliance is low.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Add automated reminders or passive time capture tools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Customers are frequently asking about order status via email.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lack of order status transparency.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Add real-time tracking updates within the user dashboard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Searching for client records takes too long.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Poor performance of search functionality.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Index key fields and implement fuzzy search optimization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The reports exported from the system have formatting issues.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Exported data lacks readability.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Apply consistent formatting and export in both Excel and PDF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Our chatbot responds with irrelevant answers during peak hours.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chatbot accuracy degrades under load.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retrain intent detection model and improve server capacity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Managers don’t receive approval notifications promptly.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Delayed process approvals.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Enable push notifications and centralized approval dashboard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>There is no way to track project progress visually.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lack of visual project oversight.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Integrate Gantt charts or progress bars into project dashboard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The email verification sometimes goes to spam folders.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Users don't complete signup due to missed emails.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Improve sender domain reputation and use transactional email APIs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>We can't download reports from mobile devices.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No mobile support for downloading files.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Enable mobile-friendly download buttons and responsive formatting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Customer support tickets are not auto-assigned.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Manual ticket routing is time-consuming.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Implement automatic ticket triaging based on issue type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Weekly meetings often lack structured agendas.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Inefficient and disorganized discussions.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Enforce agenda submission via meeting request forms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Feedback forms are too long and often abandoned.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Low response rates for surveys.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Shorten forms and show progress indicators to users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Admins cannot bulk delete old inactive users.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tedious user management for admins.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Add bulk selection and multi-action capability in the admin panel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The training videos don’t have subtitles.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Accessibility is limited.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Add closed captions and multilingual subtitle options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Notifications are not grouped, causing clutter.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Overwhelming notification volume.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Group similar notifications and implement daily digests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Users can’t update their billing info without support.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>High support load for simple account changes.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Allow self-service billing updates via account settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>There’s no changelog to track software updates.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Users are unaware of new features or fixes.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Add an in-app changelog or update feed with version history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Users are unable to filter results by category on the main search page.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Limited search functionality affects usability.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Add multi-category filtering options with checkboxes or dropdowns.</t>
+        </is>
       </c>
     </row>
   </sheetData>
